--- a/schedule/gantt-timeline.xlsx
+++ b/schedule/gantt-timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Glenn\Documents\Studie\Front-End Developing\FED Part Time Course\Semester Project 2019\plan\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D4596F-2E79-4DEB-B9E8-5040478274AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA97F47-D785-436D-BD12-618A53531186}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C7E91EC6-D78D-4019-BD09-36FB01F0F196}"/>
   </bookViews>
@@ -803,15 +803,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>256760</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -826,8 +826,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6286500" y="2743199"/>
-          <a:ext cx="361950" cy="180975"/>
+          <a:off x="6279459" y="2742785"/>
+          <a:ext cx="503997" cy="180976"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1645,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522C6D6D-DA4F-4D07-9634-46F540085D48}">
   <dimension ref="A1:BP36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2453,7 +2453,7 @@
         <v>43551</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" ref="E8:E15" si="3">D8+C8</f>
+        <f t="shared" ref="E8:E9" si="3">D8+C8</f>
         <v>43581</v>
       </c>
       <c r="F8" s="8" t="str">
@@ -2995,7 +2995,7 @@
         <v>43590</v>
       </c>
       <c r="E10" s="7">
-        <f>D10+C10</f>
+        <f t="shared" ref="E10:E15" si="4">D10+C10</f>
         <v>43597</v>
       </c>
       <c r="F10" s="8" t="str">
@@ -3107,143 +3107,143 @@
         <v/>
       </c>
       <c r="AG10" s="8" t="str">
-        <f t="shared" ref="G10:BO14" si="4">IF(AND(AG$5&gt;=$D10,AG$5&lt;=$E10),"X","")</f>
+        <f t="shared" ref="G10:BO14" si="5">IF(AND(AG$5&gt;=$D10,AG$5&lt;=$E10),"X","")</f>
         <v/>
       </c>
       <c r="AH10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AI10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AJ10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AK10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AL10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AM10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AN10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AO10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AP10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AQ10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AR10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AS10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AT10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AU10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AV10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AW10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AX10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AY10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AZ10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BA10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BB10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BC10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BD10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BE10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BF10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BG10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BH10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BI10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>X</v>
       </c>
       <c r="BJ10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>X</v>
       </c>
       <c r="BK10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>X</v>
       </c>
       <c r="BL10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>X</v>
       </c>
       <c r="BM10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>X</v>
       </c>
       <c r="BN10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>X</v>
       </c>
       <c r="BO10" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>X</v>
       </c>
       <c r="BP10" s="8" t="str">
@@ -3265,7 +3265,7 @@
         <v>43535</v>
       </c>
       <c r="E11" s="24">
-        <f>D11+C11</f>
+        <f t="shared" si="4"/>
         <v>43536</v>
       </c>
       <c r="F11" s="8" t="str">
@@ -3273,247 +3273,247 @@
         <v>X</v>
       </c>
       <c r="G11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>X</v>
       </c>
       <c r="H11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="U11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AA11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AB11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AC11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AE11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AG11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AH11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AI11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AJ11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AK11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AL11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AM11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AN11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AO11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AP11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AQ11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AR11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AS11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AT11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AU11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AV11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AW11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AX11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AY11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AZ11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BA11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BB11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BC11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BD11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BE11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BF11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BG11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BH11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BI11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BJ11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BL11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BM11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BN11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BO11" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BP11" s="8" t="str">
@@ -3536,7 +3536,7 @@
         <v>43537</v>
       </c>
       <c r="E12" s="7">
-        <f>D12+C12</f>
+        <f t="shared" si="4"/>
         <v>43538</v>
       </c>
       <c r="F12" s="8" t="str">
@@ -3544,247 +3544,247 @@
         <v/>
       </c>
       <c r="G12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>X</v>
       </c>
       <c r="I12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>X</v>
       </c>
       <c r="J12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="U12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AA12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AB12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AC12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AE12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AG12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AH12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AI12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AJ12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AK12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AL12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AM12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AN12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AO12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AP12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AQ12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AR12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AS12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AT12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AU12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AV12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AW12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AX12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AY12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AZ12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BA12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BB12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BC12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BD12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BE12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BF12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BG12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BH12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BI12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BJ12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BL12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BM12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BN12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BO12" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BP12" s="8" t="str">
@@ -3807,7 +3807,7 @@
         <v>43539</v>
       </c>
       <c r="E13" s="24">
-        <f>D13+C13</f>
+        <f t="shared" si="4"/>
         <v>43540</v>
       </c>
       <c r="F13" s="8" t="str">
@@ -3815,247 +3815,247 @@
         <v/>
       </c>
       <c r="G13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>X</v>
       </c>
       <c r="K13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>X</v>
       </c>
       <c r="L13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="U13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AA13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AB13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AC13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AE13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AG13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AH13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AI13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AJ13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AK13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AL13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AM13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AN13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AO13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AP13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AQ13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AR13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AS13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AT13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AU13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AV13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AW13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AX13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AY13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AZ13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BA13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BB13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BC13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BD13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BE13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BF13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BG13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BH13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BI13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BJ13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BK13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BL13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BM13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BN13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BO13" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="BP13" s="8" t="str">
@@ -4077,7 +4077,7 @@
         <v>43540</v>
       </c>
       <c r="E14" s="7">
-        <f>D14+C14</f>
+        <f t="shared" si="4"/>
         <v>43542</v>
       </c>
       <c r="F14" s="8" t="str">
@@ -4085,247 +4085,247 @@
         <v/>
       </c>
       <c r="G14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>X</v>
       </c>
       <c r="L14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>X</v>
       </c>
       <c r="M14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>X</v>
       </c>
       <c r="N14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="U14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="X14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Y14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Z14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AA14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AB14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AC14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AE14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AG14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AH14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AI14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AJ14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AK14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AL14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AM14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AN14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AO14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AP14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AQ14" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AR14" s="8" t="str">
-        <f t="shared" ref="G14:BO18" si="5">IF(AND(AR$5&gt;=$D14,AR$5&lt;=$E14),"X","")</f>
+        <f t="shared" ref="G14:BO18" si="6">IF(AND(AR$5&gt;=$D14,AR$5&lt;=$E14),"X","")</f>
         <v/>
       </c>
       <c r="AS14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AT14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AV14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AX14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AY14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AZ14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BA14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BB14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BC14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BD14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BE14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BF14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BG14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BH14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BI14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BJ14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BK14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BL14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BM14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BN14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BO14" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BP14" s="8" t="str">
@@ -4347,7 +4347,7 @@
         <v>43541</v>
       </c>
       <c r="E15" s="24">
-        <f>D15+C15</f>
+        <f t="shared" si="4"/>
         <v>43541.5</v>
       </c>
       <c r="F15" s="8" t="str">
@@ -4355,247 +4355,247 @@
         <v/>
       </c>
       <c r="G15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>X</v>
       </c>
       <c r="M15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="X15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AB15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AE15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AF15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AG15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AH15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AI15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AJ15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AK15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AL15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AM15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AN15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AO15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AP15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AQ15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AR15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AS15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AT15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AV15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AX15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AY15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AZ15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BA15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BB15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BC15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BD15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BE15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BF15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BG15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BH15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BI15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BJ15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BK15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BL15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BM15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BN15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BO15" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BP15" s="8" t="str">
@@ -4617,7 +4617,7 @@
         <v>43542</v>
       </c>
       <c r="E16" s="13">
-        <f t="shared" ref="E16:E35" si="6">D16+C16</f>
+        <f t="shared" ref="E16:E30" si="7">D16+C16</f>
         <v>43542.5</v>
       </c>
       <c r="F16" s="8" t="str">
@@ -4625,247 +4625,247 @@
         <v/>
       </c>
       <c r="G16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>X</v>
       </c>
       <c r="N16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="X16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AB16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AE16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AF16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AG16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AH16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AI16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AJ16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AK16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AL16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AM16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AN16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AO16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AP16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AQ16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AR16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AS16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AT16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AV16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AX16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AY16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AZ16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BA16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BB16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BC16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BD16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BE16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BF16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BG16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BH16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BI16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BJ16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BK16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BL16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BM16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BN16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BO16" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BP16" s="8" t="str">
@@ -4887,7 +4887,7 @@
         <v>43543</v>
       </c>
       <c r="E17" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43545</v>
       </c>
       <c r="F17" s="8" t="str">
@@ -4895,247 +4895,247 @@
         <v/>
       </c>
       <c r="G17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>X</v>
       </c>
       <c r="O17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>X</v>
       </c>
       <c r="P17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>X</v>
       </c>
       <c r="Q17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="X17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AB17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AE17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AF17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AG17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AH17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AI17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AJ17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AK17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AL17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AM17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AN17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AO17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AP17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AQ17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AR17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AS17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AT17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AV17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AX17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AY17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AZ17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BA17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BB17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BC17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BD17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BE17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BF17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BG17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BH17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BI17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BJ17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BK17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BL17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BM17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BN17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BO17" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BP17" s="8" t="str">
@@ -5154,11 +5154,11 @@
         <v>2</v>
       </c>
       <c r="D18" s="12">
-        <f t="shared" ref="D17:D35" si="7">E17+1</f>
+        <f t="shared" ref="D18:D19" si="8">E17+1</f>
         <v>43546</v>
       </c>
       <c r="E18" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43548</v>
       </c>
       <c r="F18" s="8" t="str">
@@ -5166,247 +5166,247 @@
         <v/>
       </c>
       <c r="G18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>X</v>
       </c>
       <c r="R18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>X</v>
       </c>
       <c r="S18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>X</v>
       </c>
       <c r="T18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="W18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="X18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Y18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AB18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AE18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AF18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AG18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AH18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AI18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AJ18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AK18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AL18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AM18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AN18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AO18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AP18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AQ18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AR18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AS18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AT18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AU18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AV18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AW18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AX18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AY18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AZ18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BA18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BB18" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BC18" s="8" t="str">
-        <f t="shared" ref="G18:BO22" si="8">IF(AND(BC$5&gt;=$D18,BC$5&lt;=$E18),"X","")</f>
+        <f t="shared" ref="G18:BO22" si="9">IF(AND(BC$5&gt;=$D18,BC$5&lt;=$E18),"X","")</f>
         <v/>
       </c>
       <c r="BD18" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BE18" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BF18" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BG18" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BH18" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BI18" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BJ18" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BK18" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BL18" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BM18" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BN18" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BO18" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BP18" s="8" t="str">
@@ -5425,11 +5425,11 @@
         <v>1</v>
       </c>
       <c r="D19" s="24">
+        <f t="shared" si="8"/>
+        <v>43549</v>
+      </c>
+      <c r="E19" s="24">
         <f t="shared" si="7"/>
-        <v>43549</v>
-      </c>
-      <c r="E19" s="24">
-        <f t="shared" si="6"/>
         <v>43550</v>
       </c>
       <c r="F19" s="8" t="str">
@@ -5437,247 +5437,247 @@
         <v/>
       </c>
       <c r="G19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="T19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>X</v>
       </c>
       <c r="U19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>X</v>
       </c>
       <c r="V19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="X19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Y19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AD19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AE19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AF19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AG19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AH19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AI19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AJ19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AK19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AM19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AN19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AO19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AQ19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AR19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AS19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AT19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AU19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AV19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AW19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AX19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AY19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AZ19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BA19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BB19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BC19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BD19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BE19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BF19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BG19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BH19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BI19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BJ19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BK19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BL19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BM19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BN19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BO19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BP19" s="8" t="str">
@@ -5699,7 +5699,7 @@
         <v>43548</v>
       </c>
       <c r="E20" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43549</v>
       </c>
       <c r="F20" s="8" t="str">
@@ -5707,247 +5707,247 @@
         <v/>
       </c>
       <c r="G20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>X</v>
       </c>
       <c r="T20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>X</v>
       </c>
       <c r="U20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="X20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Y20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AD20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AE20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AF20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AG20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AH20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AI20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AJ20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AK20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AM20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AN20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AO20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AQ20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AR20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AS20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AT20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AU20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AV20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AW20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AX20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AY20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AZ20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BA20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BB20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BC20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BD20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BE20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BF20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BG20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BH20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BI20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BJ20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BK20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BL20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BM20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BN20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BO20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BP20" s="8" t="str">
@@ -5969,7 +5969,7 @@
         <v>43545</v>
       </c>
       <c r="E21" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43550</v>
       </c>
       <c r="F21" s="8" t="str">
@@ -5977,247 +5977,247 @@
         <v/>
       </c>
       <c r="G21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>X</v>
       </c>
       <c r="Q21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>X</v>
       </c>
       <c r="R21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>X</v>
       </c>
       <c r="S21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>X</v>
       </c>
       <c r="T21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>X</v>
       </c>
       <c r="U21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>X</v>
       </c>
       <c r="V21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="W21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="X21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Y21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AB21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AC21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AD21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AE21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AF21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AG21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AH21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AI21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AJ21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AK21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AM21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AN21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AO21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AQ21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AR21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AS21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AT21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AU21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AV21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AW21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AX21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AY21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AZ21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BA21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BB21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BC21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BD21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BE21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BF21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BG21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BH21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BI21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BJ21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BK21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BL21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BM21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BN21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BO21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BP21" s="8" t="str">
@@ -6236,11 +6236,11 @@
         <v>7</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" ref="D22:D35" si="9">E21+1</f>
+        <f t="shared" ref="D22:D25" si="10">E21+1</f>
         <v>43551</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43558</v>
       </c>
       <c r="F22" s="8" t="str">
@@ -6248,247 +6248,247 @@
         <v/>
       </c>
       <c r="G22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="R22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="S22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="T22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="U22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>X</v>
       </c>
       <c r="W22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>X</v>
       </c>
       <c r="X22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>X</v>
       </c>
       <c r="Y22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>X</v>
       </c>
       <c r="Z22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>X</v>
       </c>
       <c r="AA22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>X</v>
       </c>
       <c r="AB22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>X</v>
       </c>
       <c r="AC22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>X</v>
       </c>
       <c r="AD22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AE22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AF22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AG22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AH22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AI22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AJ22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AK22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AL22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AM22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AN22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AO22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AP22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AQ22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AR22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AS22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AT22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AU22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AV22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AW22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AX22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AY22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AZ22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BA22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BB22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BC22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BD22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BE22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BF22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BG22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BH22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BI22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BJ22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BK22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BL22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BM22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="BN22" s="8" t="str">
-        <f t="shared" ref="G22:BO27" si="10">IF(AND(BN$5&gt;=$D22,BN$5&lt;=$E22),"X","")</f>
+        <f t="shared" ref="G22:BO27" si="11">IF(AND(BN$5&gt;=$D22,BN$5&lt;=$E22),"X","")</f>
         <v/>
       </c>
       <c r="BO22" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BP22" s="8" t="str">
@@ -6507,11 +6507,11 @@
         <v>5</v>
       </c>
       <c r="D23" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43559</v>
       </c>
       <c r="E23" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43564</v>
       </c>
       <c r="F23" s="8" t="str">
@@ -6519,247 +6519,247 @@
         <v/>
       </c>
       <c r="G23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="R23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="T23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="V23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="X23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Y23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Z23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AA23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AC23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="AE23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="AF23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="AG23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="AH23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="AI23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="AJ23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AK23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AL23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AN23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AO23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AP23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AQ23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AR23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AS23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AT23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AU23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AV23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AW23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AX23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AY23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AZ23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BB23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BC23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BD23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BE23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BF23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BG23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BH23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BI23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BJ23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BK23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BL23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BM23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BN23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BO23" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BP23" s="8" t="str">
@@ -6778,11 +6778,11 @@
         <v>5</v>
       </c>
       <c r="D24" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43565</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43570</v>
       </c>
       <c r="F24" s="8" t="str">
@@ -6790,247 +6790,247 @@
         <v/>
       </c>
       <c r="G24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="R24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="T24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="V24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="X24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Y24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Z24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AA24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AC24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AE24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AF24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AG24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AH24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AI24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AJ24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="AK24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="AL24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="AM24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="AN24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="AO24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="AP24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AQ24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AR24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AS24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AT24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AU24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AV24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AW24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AX24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AY24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AZ24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BB24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BC24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BD24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BE24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BF24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BG24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BH24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BI24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BJ24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BK24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BL24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BM24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BN24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BO24" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BP24" s="8" t="str">
@@ -7049,11 +7049,11 @@
         <v>5</v>
       </c>
       <c r="D25" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43571</v>
       </c>
       <c r="E25" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43576</v>
       </c>
       <c r="F25" s="8" t="str">
@@ -7061,247 +7061,247 @@
         <v/>
       </c>
       <c r="G25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="R25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="T25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="V25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="X25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Y25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Z25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AA25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AC25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AE25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AF25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AG25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AH25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AI25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AJ25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AK25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AL25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AN25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AO25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AP25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="AQ25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="AR25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="AS25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="AT25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="AU25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="AV25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AW25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AX25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AY25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AZ25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BB25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BC25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BD25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BE25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BF25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BG25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BH25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BI25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BJ25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BK25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BL25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BM25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BN25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BO25" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BP25" s="8" t="str">
@@ -7324,7 +7324,7 @@
         <v>43577</v>
       </c>
       <c r="E26" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43577.5</v>
       </c>
       <c r="F26" s="8" t="str">
@@ -7332,247 +7332,247 @@
         <v/>
       </c>
       <c r="G26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="R26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="S26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="T26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="U26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="V26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="W26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="X26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Y26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Z26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AA26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AC26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AE26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AF26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AG26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AH26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AI26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AJ26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AK26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AL26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AN26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AO26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AP26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AQ26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AR26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AS26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AT26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AU26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AV26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>X</v>
       </c>
       <c r="AW26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AX26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AY26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AZ26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BA26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BB26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BC26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BD26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BE26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BF26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BG26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BH26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BI26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BJ26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BK26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BL26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BM26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BN26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BO26" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="BP26" s="8" t="str">
@@ -7594,7 +7594,7 @@
         <v>43577</v>
       </c>
       <c r="E27" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43581</v>
       </c>
       <c r="F27" s="8" t="str">
@@ -7602,247 +7602,247 @@
         <v/>
       </c>
       <c r="G27" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H27" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I27" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J27" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K27" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L27" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M27" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N27" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O27" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P27" s="8" t="str">
-        <f t="shared" ref="G27:BO30" si="11">IF(AND(P$5&gt;=$D27,P$5&lt;=$E27),"X","")</f>
+        <f t="shared" ref="G27:BO30" si="12">IF(AND(P$5&gt;=$D27,P$5&lt;=$E27),"X","")</f>
         <v/>
       </c>
       <c r="Q27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="V27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="X27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Y27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Z27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AA27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AB27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AF27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AG27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AH27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AI27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AJ27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AK27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AL27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AM27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AN27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AO27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AP27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AQ27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AR27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AS27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AT27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AU27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AV27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>X</v>
       </c>
       <c r="AW27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>X</v>
       </c>
       <c r="AX27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>X</v>
       </c>
       <c r="AY27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>X</v>
       </c>
       <c r="AZ27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>X</v>
       </c>
       <c r="BA27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BB27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BC27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BD27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BE27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BF27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BG27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BH27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BI27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BK27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BL27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BM27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BN27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BO27" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BP27" s="8" t="str">
@@ -7864,7 +7864,7 @@
         <v>43575</v>
       </c>
       <c r="E28" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43576</v>
       </c>
       <c r="F28" s="8" t="str">
@@ -7872,247 +7872,247 @@
         <v/>
       </c>
       <c r="G28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="P28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="V28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="X28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Y28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Z28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AA28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AB28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AF28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AG28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AH28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AI28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AJ28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AK28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AL28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AM28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AN28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AO28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AP28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AQ28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AR28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AS28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AT28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>X</v>
       </c>
       <c r="AU28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>X</v>
       </c>
       <c r="AV28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AW28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AX28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AY28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AZ28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BA28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BB28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BC28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BD28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BE28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BF28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BG28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BH28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BI28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BK28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BL28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BM28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BN28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BO28" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BP28" s="8" t="str">
@@ -8134,7 +8134,7 @@
         <v>43582</v>
       </c>
       <c r="E29" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43583</v>
       </c>
       <c r="F29" s="8" t="str">
@@ -8142,247 +8142,247 @@
         <v/>
       </c>
       <c r="G29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="P29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="V29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="X29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Y29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Z29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AA29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AB29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AF29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AG29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AH29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AI29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AJ29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AK29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AL29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AM29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AN29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AO29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AP29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AQ29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AR29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AS29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AT29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AU29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AV29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AW29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AX29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AY29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AZ29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BA29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>X</v>
       </c>
       <c r="BB29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>X</v>
       </c>
       <c r="BC29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BD29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BE29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BF29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BG29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BH29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BI29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BK29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BL29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BM29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BN29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BO29" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BP29" s="8" t="str">
@@ -8401,11 +8401,11 @@
         <v>1</v>
       </c>
       <c r="D30" s="12">
-        <f t="shared" ref="D27:D35" si="12">E29+1</f>
+        <f t="shared" ref="D30" si="13">E29+1</f>
         <v>43584</v>
       </c>
       <c r="E30" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43585</v>
       </c>
       <c r="F30" s="8" t="str">
@@ -8413,247 +8413,247 @@
         <v/>
       </c>
       <c r="G30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="P30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="V30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="X30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Y30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Z30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AA30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AB30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AF30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AG30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AH30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AI30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AJ30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AK30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AL30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AM30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AN30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AO30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AP30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AQ30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AR30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AS30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AT30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AU30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AV30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AW30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AX30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AY30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AZ30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BA30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BB30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BC30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>X</v>
       </c>
       <c r="BD30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>X</v>
       </c>
       <c r="BE30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BF30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BG30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BH30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BI30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BJ30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BK30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BL30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BM30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BN30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BO30" s="8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BP30" s="8" t="str">

--- a/schedule/gantt-timeline.xlsx
+++ b/schedule/gantt-timeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Glenn\Documents\Studie\Front-End Developing\FED Part Time Course\Semester Project 2019\plan\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Glenn\Documents\Studie\Front-End Developing\FED Part Time Course\Semester Project 2019\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA97F47-D785-436D-BD12-618A53531186}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1975028-2DA3-4EA9-84B4-3519A498AEE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C7E91EC6-D78D-4019-BD09-36FB01F0F196}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Project Name</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Submit Page to Moodle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -566,124 +569,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Rett linje 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A39A3995-19C4-451D-B95A-8FAC6B30386E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8334375" y="990600"/>
-          <a:ext cx="0" cy="2628900"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Rett linje 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A621DA60-6649-4CA1-9DF4-6C947ECC2DA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10391775" y="1009650"/>
-          <a:ext cx="0" cy="3562350"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -876,7 +761,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -894,8 +779,76 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6791325" y="2924175"/>
-          <a:ext cx="257175" cy="190500"/>
+          <a:off x="6801971" y="2924735"/>
+          <a:ext cx="515470" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257734</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rektangel 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4925FCC-74B7-4603-ACC5-B1D1579EEFE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7317440" y="3115235"/>
+          <a:ext cx="504265" cy="179294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -939,22 +892,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>257734</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rektangel 24">
+        <xdr:cNvPr id="26" name="Rektangel 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4925FCC-74B7-4603-ACC5-B1D1579EEFE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FB38AB-2E66-4B2E-BB8B-9BDDE7E67831}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,8 +915,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7305675" y="3114675"/>
-          <a:ext cx="95250" cy="209550"/>
+          <a:off x="7575175" y="3305735"/>
+          <a:ext cx="750795" cy="179294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1006,23 +959,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Rektangel 25">
+        <xdr:cNvPr id="29" name="Rektangel 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FB38AB-2E66-4B2E-BB8B-9BDDE7E67831}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEA9D17-62DC-4923-9D2B-D1608266596C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1030,8 +983,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7562850" y="3305175"/>
-          <a:ext cx="247650" cy="190500"/>
+          <a:off x="6286500" y="1781735"/>
+          <a:ext cx="2073088" cy="179294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1074,151 +1027,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>723900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Rett linje 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C147B5DA-E6A9-45C2-AEC9-D56A4B2A82B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6705600" y="1609725"/>
-          <a:ext cx="9525" cy="4972050"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:headEnd type="triangle" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst>
-          <a:glow rad="228600">
-            <a:schemeClr val="accent6">
-              <a:satMod val="175000"/>
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Rektangel 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEA9D17-62DC-4923-9D2B-D1608266596C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6276975" y="1781175"/>
-          <a:ext cx="1276350" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="nb-NO" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257734</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>246528</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1233,8 +1051,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8077200" y="3686175"/>
-          <a:ext cx="76200" cy="190500"/>
+          <a:off x="8090646" y="3686735"/>
+          <a:ext cx="246529" cy="179294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1280,13 +1098,13 @@
       <xdr:col>52</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1301,8 +1119,1417 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18364200" y="6162675"/>
-          <a:ext cx="47625" cy="200025"/>
+          <a:off x="18224500" y="6159501"/>
+          <a:ext cx="508000" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rektangel 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4A1A8F-B6D5-4444-A22A-20AF5BC5CEDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7844118" y="3507441"/>
+          <a:ext cx="235323" cy="179294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rektangel 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED2F6A2-CD32-4DDB-91F9-B2896380184D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8871857" y="4640036"/>
+          <a:ext cx="1537607" cy="204107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257734</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rektangel 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7A90F62-39B2-4AF4-A8D5-55E1DAFE2EE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8353984" y="1986643"/>
+          <a:ext cx="2041873" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rektangel 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CEE2E62-18B4-403C-811F-3A5F99BC4DB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9903077" y="4274799"/>
+          <a:ext cx="507188" cy="162729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rektangel 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E040216-056B-431C-8A46-4F124F054D05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8354786" y="3891642"/>
+          <a:ext cx="789214" cy="204107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>176894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>176894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rektangel 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C1BBCE-0478-401A-AF77-71C04F1AAE1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9130393" y="4068537"/>
+          <a:ext cx="762000" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rektangel 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB54148-44E8-4066-8C6B-CA3BD0210883}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9647464" y="4463143"/>
+          <a:ext cx="503465" cy="163286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>258532</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>242454</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rektangel 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{363F2A88-87DE-4C62-B707-39772C9B1D75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10424305" y="4849090"/>
+          <a:ext cx="2062104" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>258534</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rektangel 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9279E37B-80A5-4A6D-835F-3E807285ABDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12502489" y="5039592"/>
+          <a:ext cx="1559875" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rektangel 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B939BB2-809A-40DB-A3B1-26791D406C0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14062364" y="5230091"/>
+          <a:ext cx="1558636" cy="207818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>259771</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>259771</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rektangel 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20AF23A7-8553-4C9C-BFF4-54097DBDAEFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15620998" y="5420591"/>
+          <a:ext cx="1558637" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>242453</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rektangel 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3342E456-B864-4C03-A566-785074B61086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10338953" y="2158999"/>
+          <a:ext cx="7869671" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Rett linje 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A621DA60-6649-4CA1-9DF4-6C947ECC2DA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="1009650"/>
+          <a:ext cx="0" cy="3562350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Rett linje 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A39A3995-19C4-451D-B95A-8FAC6B30386E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="990600"/>
+          <a:ext cx="0" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>162087</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>760693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>171612</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>74893</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Rett linje 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C147B5DA-E6A9-45C2-AEC9-D56A4B2A82B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21434587" y="1649693"/>
+          <a:ext cx="9525" cy="4965700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="228600">
+            <a:schemeClr val="accent6">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rektangel 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79979860-0198-4861-8BF0-3DE30462D37A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16954500" y="5588000"/>
+          <a:ext cx="254000" cy="174625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rektangel 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4878B60-EB72-41D4-8F05-CBDAAC876804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16954499" y="5778500"/>
+          <a:ext cx="1270001" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rektangel 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE1EF67-C52F-44FD-9DD7-AD719C013B6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16446500" y="5984875"/>
+          <a:ext cx="508000" cy="158750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rektangel 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC505CC0-7743-41F5-932E-1AFBD245D014}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18224499" y="2349500"/>
+          <a:ext cx="2032001" cy="174625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rektangel 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C922F08C-800A-4D97-8F6D-691B92F275A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18732500" y="6350000"/>
+          <a:ext cx="508000" cy="174625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="nb-NO" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rektangel 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{815519B8-9A3A-4B37-968D-EF220464A230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20461941" y="2543735"/>
+          <a:ext cx="2061883" cy="201706"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1645,8 +2872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522C6D6D-DA4F-4D07-9634-46F540085D48}">
   <dimension ref="A1:BP36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="J5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BQ11" sqref="BQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2763,9 +3990,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="O9" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="P9" s="8" t="str">
         <f t="shared" si="0"/>
